--- a/Emissionsanalyse Verkehrssimulation/output.xlsx
+++ b/Emissionsanalyse Verkehrssimulation/output.xlsx
@@ -65,7 +65,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -82,7 +82,106 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2"/>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>10529.726907807619</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5000.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10596.367415383225</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5000.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10782.24259990703</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5000.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>9326.908290058607</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5000.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>9520.365337891286</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5000.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>9355.497288778175</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5000.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>9078.549504832175</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5000.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8810.54563608982</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5000.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9094.477213843267</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5000.0</v>
+      </c>
+    </row>
+    <row r="11"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Emissionsanalyse Verkehrssimulation/output.xlsx
+++ b/Emissionsanalyse Verkehrssimulation/output.xlsx
@@ -65,7 +65,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -87,10 +87,10 @@
         <v>200.0</v>
       </c>
       <c r="B2" t="n">
-        <v>10529.726907807619</v>
+        <v>1913.3586933118804</v>
       </c>
       <c r="C2" t="n">
-        <v>5000.0</v>
+        <v>2500.0</v>
       </c>
     </row>
     <row r="3">
@@ -98,10 +98,10 @@
         <v>200.0</v>
       </c>
       <c r="B3" t="n">
-        <v>10596.367415383225</v>
+        <v>4818.647550699779</v>
       </c>
       <c r="C3" t="n">
-        <v>5000.0</v>
+        <v>2500.0</v>
       </c>
     </row>
     <row r="4">
@@ -109,79 +109,13 @@
         <v>200.0</v>
       </c>
       <c r="B4" t="n">
-        <v>10782.24259990703</v>
+        <v>4894.048099439447</v>
       </c>
       <c r="C4" t="n">
         <v>5000.0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>120.0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>9326.908290058607</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5000.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>120.0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>9520.365337891286</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5000.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>120.0</v>
-      </c>
-      <c r="B7" t="n">
-        <v>9355.497288778175</v>
-      </c>
-      <c r="C7" t="n">
-        <v>5000.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="B8" t="n">
-        <v>9078.549504832175</v>
-      </c>
-      <c r="C8" t="n">
-        <v>5000.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="B9" t="n">
-        <v>8810.54563608982</v>
-      </c>
-      <c r="C9" t="n">
-        <v>5000.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="B10" t="n">
-        <v>9094.477213843267</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5000.0</v>
-      </c>
-    </row>
-    <row r="11"/>
+    <row r="5"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Emissionsanalyse Verkehrssimulation/output.xlsx
+++ b/Emissionsanalyse Verkehrssimulation/output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Tempolimit in km/h</t>
   </si>
@@ -21,6 +21,9 @@
   </si>
   <si>
     <t>Verkehrsstärke in Fz/h</t>
+  </si>
+  <si>
+    <t>Mittlere Geschwindigkeit in m/s</t>
   </si>
 </sst>
 </file>
@@ -81,27 +84,36 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>200.0</v>
+        <v>100.0</v>
       </c>
       <c r="B2" t="n">
-        <v>1913.3586933118804</v>
+        <v>4317.0052187799465</v>
       </c>
       <c r="C2" t="n">
         <v>2500.0</v>
       </c>
+      <c r="D2" t="n">
+        <v>23.017104056147236</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>200.0</v>
+        <v>120.0</v>
       </c>
       <c r="B3" t="n">
-        <v>4818.647550699779</v>
+        <v>4630.35981352518</v>
       </c>
       <c r="C3" t="n">
         <v>2500.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>25.517444139410003</v>
       </c>
     </row>
     <row r="4">
@@ -109,10 +121,13 @@
         <v>200.0</v>
       </c>
       <c r="B4" t="n">
-        <v>4894.048099439447</v>
+        <v>4791.813487406903</v>
       </c>
       <c r="C4" t="n">
-        <v>5000.0</v>
+        <v>2500.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>28.918905450939427</v>
       </c>
     </row>
     <row r="5"/>
